--- a/target/DatosExcel/DatosCreditoEmpresarialReprogramacionOtroPagare.xlsx
+++ b/target/DatosExcel/DatosCreditoEmpresarialReprogramacionOtroPagare.xlsx
@@ -92,9 +92,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>22114387</t>
-  </si>
-  <si>
     <t>Modalidad Amortización</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Número Cuotas</t>
   </si>
   <si>
-    <t>080-01-0840793</t>
-  </si>
-  <si>
     <t>13/12/2021</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>Prueba</t>
+  </si>
+  <si>
+    <t>15979240</t>
+  </si>
+  <si>
+    <t>080-01-6913172</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -548,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -557,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -566,34 +568,34 @@
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -610,7 +612,7 @@
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -619,22 +621,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>4</v>
@@ -652,16 +654,16 @@
         <v>21</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>20</v>

--- a/target/DatosExcel/DatosCreditoEmpresarialReprogramacionOtroPagare.xlsx
+++ b/target/DatosExcel/DatosCreditoEmpresarialReprogramacionOtroPagare.xlsx
@@ -50,9 +50,6 @@
     <t>OFICIO MULTIPLE N° 5345</t>
   </si>
   <si>
-    <t>Cronograma de Pagos</t>
-  </si>
-  <si>
     <t>Modalidad Pago</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Número Cuotas</t>
   </si>
   <si>
-    <t>13/12/2021</t>
-  </si>
-  <si>
     <t>REPROGRAMACION EN OTRO PAGARE</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>080-01-6913172</t>
+  </si>
+  <si>
+    <t>20/12/2021</t>
+  </si>
+  <si>
+    <t>Cronograma Pagos</t>
   </si>
 </sst>
 </file>
@@ -512,9 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -550,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -559,117 +557,117 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="S2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>

--- a/target/DatosExcel/DatosCreditoEmpresarialReprogramacionOtroPagare.xlsx
+++ b/target/DatosExcel/DatosCreditoEmpresarialReprogramacionOtroPagare.xlsx
@@ -128,9 +128,6 @@
     <t>Fecha Desembolso</t>
   </si>
   <si>
-    <t>Forma Ddesembolso</t>
-  </si>
-  <si>
     <t>EFECTIVO</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Cronograma Pagos</t>
+  </si>
+  <si>
+    <t>Forma Desembolso</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
     <col min="18" max="18" width="17.7109375" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.140625" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="53.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -587,13 +587,13 @@
         <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>16</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>28</v>
@@ -640,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>5</v>
@@ -655,13 +655,13 @@
         <v>32</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>19</v>

--- a/target/DatosExcel/DatosCreditoEmpresarialReprogramacionOtroPagare.xlsx
+++ b/target/DatosExcel/DatosCreditoEmpresarialReprogramacionOtroPagare.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIO_ACTUAL\CajaPiuraCMAC2021\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMACPiura_2022\CMACPiura_2022\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Cliente</t>
   </si>
@@ -104,58 +104,77 @@
     <t>Promoción</t>
   </si>
   <si>
+    <t>Monto Operación</t>
+  </si>
+  <si>
+    <t>Plan Pagos</t>
+  </si>
+  <si>
+    <t>Dia Pago</t>
+  </si>
+  <si>
+    <t>Tasa Preferencial</t>
+  </si>
+  <si>
+    <t>Fecha Desembolso</t>
+  </si>
+  <si>
+    <t>EFECTIVO</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>15979240</t>
+  </si>
+  <si>
+    <t>Cronograma Pagos</t>
+  </si>
+  <si>
+    <t>Forma Desembolso</t>
+  </si>
+  <si>
+    <t>CREDITO AL TOQUE</t>
+  </si>
+  <si>
+    <t>080-01-0270862</t>
+  </si>
+  <si>
+    <t>935.80</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5102480</t>
+  </si>
+  <si>
     <t>PROMO MYPE</t>
   </si>
   <si>
-    <t>Monto Operación</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Plan Pagos</t>
-  </si>
-  <si>
-    <t>Dia Pago</t>
-  </si>
-  <si>
-    <t>Tasa Preferencial</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Fecha Desembolso</t>
-  </si>
-  <si>
-    <t>EFECTIVO</t>
-  </si>
-  <si>
-    <t>Notas</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>15979240</t>
-  </si>
-  <si>
-    <t>080-01-6913172</t>
-  </si>
-  <si>
-    <t>20/12/2021</t>
-  </si>
-  <si>
-    <t>Cronograma Pagos</t>
-  </si>
-  <si>
-    <t>Forma Desembolso</t>
+    <t>080-01-7067471</t>
+  </si>
+  <si>
+    <t>516.42</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4978884</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -510,34 +529,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.7109375" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="53.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1">
@@ -566,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>21</v>
@@ -578,22 +599,22 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>16</v>
@@ -610,7 +631,7 @@
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -625,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
@@ -634,13 +655,13 @@
         <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>5</v>
@@ -652,16 +673,16 @@
         <v>20</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>19</v>
@@ -669,8 +690,72 @@
       <c r="T2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U2"/>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
       <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
